--- a/pred_ohlcv/54_21/2019-10-27 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 ADA ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>158643.6178</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>158643.6178</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>159843.6178</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>158643.6178</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>132810.517</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>134311.57408245</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>130737.63628245</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>130737.63628245</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>130277.77298245</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>130277.77298245</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>66340.51664227003</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>66340.51664227003</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>67910.51664227003</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>67910.51664227003</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>75068.05034227003</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>75068.05034227003</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>46910.06394227003</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>46910.06394227003</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>32480.64084227003</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>33659.40394227002</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>33659.40394227002</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>33098.01594227002</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>33098.01594227002</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>11670.24984227002</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>18959.33124227002</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>18959.33124227002</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>1976.632342270022</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-734532.6038114802</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-748479.4190114802</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-746772.9528114802</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-746772.9528114802</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-710586.8707114802</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-574619.6338114801</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-571632.1648114801</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-572752.3100114801</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-572243.3100114801</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-634333.4339114801</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-634824.3339114801</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-516161.0844299704</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-488474.5907299704</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-488489.5907299704</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-488489.5907299704</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-488489.5907299704</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-537785.2541299704</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-537785.2541299704</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-513594.0586299704</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-513594.0586299704</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-513594.0586299704</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-504802.4519299704</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-504802.4519299704</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-504802.4519299704</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-504802.4519299704</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-504802.4519299704</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-506513.1249299704</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-506413.4632299704</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-506413.4632299704</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-506413.4632299704</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-506413.4632299704</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-502194.0632299704</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-502194.0632299704</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-36946.22062997043</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-36946.22062997043</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-132442.7012299704</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-132442.7012299704</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-287118.1083299704</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 ADA ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>158643.6178</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>158643.6178</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>159843.6178</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>158643.6178</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>132810.517</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>134311.57408245</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>130737.63628245</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>130737.63628245</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>130277.77298245</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>130277.77298245</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>66340.51664227003</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>66340.51664227003</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>67910.51664227003</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>67910.51664227003</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>75068.05034227003</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>75068.05034227003</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>46910.06394227003</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>46910.06394227003</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>32480.64084227003</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>33659.40394227002</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>33659.40394227002</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>33098.01594227002</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>33098.01594227002</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>11670.24984227002</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>18959.33124227002</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>18959.33124227002</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>1976.632342270022</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-734532.6038114802</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-748479.4190114802</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-746772.9528114802</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-746772.9528114802</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-710586.8707114802</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-710586.8707114802</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-693088.0751114802</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-574619.6338114801</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-571632.1648114801</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-572752.3100114801</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-572243.3100114801</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-634333.4339114801</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-634824.3339114801</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-516161.0844299704</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-488474.5907299704</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-488489.5907299704</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-488489.5907299704</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-488489.5907299704</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-537785.2541299704</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-537785.2541299704</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-513594.0586299704</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-513594.0586299704</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-513594.0586299704</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-504802.4519299704</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-504802.4519299704</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-504802.4519299704</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-504802.4519299704</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-504802.4519299704</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-506513.1249299704</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-506413.4632299704</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-506413.4632299704</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-506413.4632299704</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-506413.4632299704</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-502194.0632299704</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-502194.0632299704</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-36946.22062997043</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-36946.22062997043</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-132442.7012299704</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-132442.7012299704</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-287118.1083299704</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
